--- a/testfiles/Tests.xlsx
+++ b/testfiles/Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dumacduke-my.sharepoint.com/personal/dpazzula_dumac_duke_edu/Documents/Documents/FinTech545_Spring2025/testfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpazzula\OneDrive - dumac.duke.edu\Documents\FinTech-545-Fall2025\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="11_F25DC773A252ABDACC10488DC99B48205ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E346C5-5206-4095-B5BD-6FB4EC162A8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F998208-48A2-4022-A0EE-5B45D23254F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Test</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>test11_2_factor_returns.csv, test11_2_stock_returns.csv, test11_2_beta.csv,test_11_2_weights.csv</t>
+  </si>
+  <si>
+    <t>European Options GBSM including Greeks</t>
+  </si>
+  <si>
+    <t>American Options with continuous Dividends including Greeks</t>
+  </si>
+  <si>
+    <t>American Options with discreet Dividends including Greeks</t>
   </si>
 </sst>
 </file>
@@ -541,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D36" si="0">"testout_"&amp;A3&amp;".csv"</f>
+        <f t="shared" ref="D3:D39" si="0">"testout_"&amp;A3&amp;".csv"</f>
         <v>testout_1.2.csv</v>
       </c>
     </row>
@@ -1091,6 +1100,42 @@
       <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>testout_11.2.csv</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>12.1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_12.1.csv</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>12.2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_12.2.csv</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>12.3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_12.3.csv</v>
       </c>
     </row>
   </sheetData>

--- a/testfiles/Tests.xlsx
+++ b/testfiles/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpazzula\OneDrive - dumac.duke.edu\Documents\FinTech-545-Fall2025\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F998208-48A2-4022-A0EE-5B45D23254F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B31C93-206E-4E64-980E-4155A2D902A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,7 @@
     <definedName name="DUMAC_POOL_TDE">"TDE"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Test</t>
   </si>
@@ -229,7 +230,13 @@
     <t>American Options with continuous Dividends including Greeks</t>
   </si>
   <si>
-    <t>American Options with discreet Dividends including Greeks</t>
+    <t>test12_1.csv</t>
+  </si>
+  <si>
+    <t>test12_3.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Options with discreet Dividends </t>
   </si>
 </sst>
 </file>
@@ -552,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1109,6 +1116,9 @@
       <c r="B37" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>testout_12.1.csv</v>
@@ -1121,6 +1131,9 @@
       <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>testout_12.2.csv</v>
@@ -1131,7 +1144,10 @@
         <v>12.3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
